--- a/biology/Botanique/Poularde_aux_morilles/Poularde_aux_morilles.xlsx
+++ b/biology/Botanique/Poularde_aux_morilles/Poularde_aux_morilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La poularde aux morilles est une recette de cuisine traditionnelle de poularde à la crème, au vin jaune, et aux morilles, des repas de fête des cuisine franc-comtoise, et cuisine bressane[1],[2].
+La poularde aux morilles est une recette de cuisine traditionnelle de poularde à la crème, au vin jaune, et aux morilles, des repas de fête des cuisine franc-comtoise, et cuisine bressane,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Variante des recettes telles que la poule au pot, le coq au vin, le poulet à la comtoise, ou le coq au vin jaune, cette recette allie des produits régionaux des cuisines franc-comtoise et bressane : poularde de Bresse, crème et beurre de Bresse, morilles, et généralement vin jaune du vignoble du Jura. 
 			Avec du vin jaune du vignoble du Jura, chez le chef Paul Bocuse.
